--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>010045</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>汇添富稳健添盈一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.42</t>
+          <t>145.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>76.97</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>10.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6707</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.93</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.82</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.74</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010045</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富稳健添盈一年持有期混合</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30.02</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>9.89</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.69</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.91</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1979,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1995,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.69</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2011,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2027,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.69</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2236,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2252,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,323 +457,659 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010045</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富稳健添盈一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>145.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6707</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8950</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6707</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>233009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩多因子精选策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2063</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1449</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+      <c r="D8" t="n">
+        <v>3.71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -830,36 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4640</t>
+          <t>0.1790</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -868,36 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4249</t>
+          <t>0.1775</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -906,36 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1455,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1512,36 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1790</t>
+          <t>0.4640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1550,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>77.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1775</t>
+          <t>0.4249</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1588,546 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2555</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2314</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1908</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1390</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0839</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>015495</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0640</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>015496</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0534</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2141,144 +1967,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6707</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.71</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.69</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000556</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000557</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1109,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002891-中宠股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.82</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.69</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6707</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1830,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1924,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2132,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2982,326 +3605,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010045</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富稳健添盈一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>145.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6707</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8950</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6707</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>233009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩多因子精选策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2063</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1449</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>